--- a/document/docs/pg0004/アプリケーション」詳細設計書.xlsx
+++ b/document/docs/pg0004/アプリケーション」詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\pythonbase\document\docs\pg0004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1AD2E-7798-42BA-843D-3D190E2F0C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB6BF7E-C905-4635-A7E4-A7CF5F7B7DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{B7C0FE37-24B5-4B6B-86B1-54C95A5D177E}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>プログラムコード</t>
     <phoneticPr fontId="1"/>
@@ -710,6 +710,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>4.処理</t>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2644,6 +2651,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:CQ4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:CQ5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:CQ6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:CQ7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:CQ8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:CQ9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:CQ10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:CQ11"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="F15:CQ15"/>
     <mergeCell ref="B12:E12"/>
@@ -2652,23 +2676,6 @@
     <mergeCell ref="F13:CQ13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:CQ14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:CQ9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:CQ10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:CQ11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:CQ6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:CQ7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:CQ8"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:CQ4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:CQ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4066,6 +4073,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="P8:AR8"/>
+    <mergeCell ref="G14:W14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="X12:AN12"/>
+    <mergeCell ref="G13:W13"/>
+    <mergeCell ref="G12:W12"/>
+    <mergeCell ref="B2:CR2"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="P4:AR4"/>
+    <mergeCell ref="AS4:CS4"/>
+    <mergeCell ref="P5:AR5"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:W23"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:W18"/>
+    <mergeCell ref="X18:AN18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:W19"/>
+    <mergeCell ref="X19:AN19"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:W22"/>
+    <mergeCell ref="AO15:BE15"/>
+    <mergeCell ref="G15:W15"/>
+    <mergeCell ref="X15:AN15"/>
+    <mergeCell ref="X14:AN14"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="P9:AR9"/>
+    <mergeCell ref="AS5:CS9"/>
+    <mergeCell ref="X13:AN13"/>
+    <mergeCell ref="AO12:BE12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="P6:AR6"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="AO13:BE13"/>
+    <mergeCell ref="AO14:BE14"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="P7:AR7"/>
     <mergeCell ref="AO18:BE18"/>
     <mergeCell ref="BW23:CM23"/>
     <mergeCell ref="C24:F24"/>
@@ -4077,52 +4125,11 @@
     <mergeCell ref="X23:AN23"/>
     <mergeCell ref="AO23:BE23"/>
     <mergeCell ref="BF23:BV23"/>
-    <mergeCell ref="AO15:BE15"/>
-    <mergeCell ref="G15:W15"/>
-    <mergeCell ref="X15:AN15"/>
-    <mergeCell ref="X14:AN14"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="P9:AR9"/>
-    <mergeCell ref="AS5:CS9"/>
-    <mergeCell ref="X13:AN13"/>
-    <mergeCell ref="AO12:BE12"/>
     <mergeCell ref="BW22:CM22"/>
     <mergeCell ref="X22:AN22"/>
     <mergeCell ref="AO22:BE22"/>
     <mergeCell ref="BF22:BV22"/>
     <mergeCell ref="AO19:BE19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:W23"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:W18"/>
-    <mergeCell ref="X18:AN18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:W19"/>
-    <mergeCell ref="X19:AN19"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:W22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B2:CR2"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="P4:AR4"/>
-    <mergeCell ref="AS4:CS4"/>
-    <mergeCell ref="P5:AR5"/>
-    <mergeCell ref="P6:AR6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="AO13:BE13"/>
-    <mergeCell ref="AO14:BE14"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="P7:AR7"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="P8:AR8"/>
-    <mergeCell ref="G14:W14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="X12:AN12"/>
-    <mergeCell ref="G13:W13"/>
-    <mergeCell ref="G12:W12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6220,16 +6227,108 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="U5:AO5"/>
-    <mergeCell ref="AP5:BD5"/>
-    <mergeCell ref="BE5:BS5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="U4:AO4"/>
-    <mergeCell ref="AP4:BD4"/>
-    <mergeCell ref="BE4:BS4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:T6"/>
+    <mergeCell ref="U6:AO6"/>
+    <mergeCell ref="AP6:BD6"/>
+    <mergeCell ref="BE6:BS6"/>
+    <mergeCell ref="CO19:DC19"/>
+    <mergeCell ref="CO20:DC20"/>
+    <mergeCell ref="CO21:DC21"/>
+    <mergeCell ref="CO22:DC22"/>
+    <mergeCell ref="BZ21:CN21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:T20"/>
+    <mergeCell ref="U20:AO20"/>
+    <mergeCell ref="AP20:BJ20"/>
+    <mergeCell ref="BK20:BY20"/>
+    <mergeCell ref="BZ20:CN20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:T21"/>
+    <mergeCell ref="U21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="BK21:BY21"/>
+    <mergeCell ref="BZ19:CN19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="CO23:DC23"/>
+    <mergeCell ref="CO31:DC31"/>
+    <mergeCell ref="CO25:DC25"/>
+    <mergeCell ref="CO26:DC26"/>
+    <mergeCell ref="CO27:DC27"/>
+    <mergeCell ref="CO28:DC28"/>
+    <mergeCell ref="CO29:DC29"/>
+    <mergeCell ref="CO30:DC30"/>
+    <mergeCell ref="CO24:DC24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:T31"/>
+    <mergeCell ref="U31:AO31"/>
+    <mergeCell ref="AP31:BJ31"/>
+    <mergeCell ref="BK31:BY31"/>
+    <mergeCell ref="BZ31:CN31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:T30"/>
+    <mergeCell ref="U30:AO30"/>
+    <mergeCell ref="AP30:BJ30"/>
+    <mergeCell ref="BK30:BY30"/>
+    <mergeCell ref="BZ30:CN30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:T29"/>
+    <mergeCell ref="U29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
+    <mergeCell ref="BK29:BY29"/>
+    <mergeCell ref="BZ29:CN29"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:T28"/>
+    <mergeCell ref="U28:AO28"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="BK28:BY28"/>
+    <mergeCell ref="BZ28:CN28"/>
+    <mergeCell ref="BZ27:CN27"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:T26"/>
+    <mergeCell ref="U26:AO26"/>
+    <mergeCell ref="AP26:BJ26"/>
+    <mergeCell ref="BK26:BY26"/>
+    <mergeCell ref="BZ26:CN26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:T27"/>
+    <mergeCell ref="U27:AO27"/>
+    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="BK27:BY27"/>
+    <mergeCell ref="BZ25:CN25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:T24"/>
+    <mergeCell ref="U24:AO24"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="BK24:BY24"/>
+    <mergeCell ref="BZ24:CN24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="U25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="BK25:BY25"/>
+    <mergeCell ref="BZ23:CN23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:T22"/>
+    <mergeCell ref="U22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="BK22:BY22"/>
+    <mergeCell ref="BZ22:CN22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:T23"/>
+    <mergeCell ref="U23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
+    <mergeCell ref="BK23:BY23"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:AO19"/>
+    <mergeCell ref="AP19:BJ19"/>
+    <mergeCell ref="BK19:BY19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:AO15"/>
+    <mergeCell ref="AP15:BD15"/>
     <mergeCell ref="BE10:BS10"/>
     <mergeCell ref="BE11:BS11"/>
     <mergeCell ref="BE12:BS12"/>
@@ -6254,108 +6353,16 @@
     <mergeCell ref="F12:T12"/>
     <mergeCell ref="U12:AO12"/>
     <mergeCell ref="AP12:BD12"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:AO19"/>
-    <mergeCell ref="AP19:BJ19"/>
-    <mergeCell ref="BK19:BY19"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:AO15"/>
-    <mergeCell ref="AP15:BD15"/>
-    <mergeCell ref="BZ23:CN23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:T22"/>
-    <mergeCell ref="U22:AO22"/>
-    <mergeCell ref="AP22:BJ22"/>
-    <mergeCell ref="BK22:BY22"/>
-    <mergeCell ref="BZ22:CN22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:T23"/>
-    <mergeCell ref="U23:AO23"/>
-    <mergeCell ref="AP23:BJ23"/>
-    <mergeCell ref="BK23:BY23"/>
-    <mergeCell ref="BZ25:CN25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:T24"/>
-    <mergeCell ref="U24:AO24"/>
-    <mergeCell ref="AP24:BJ24"/>
-    <mergeCell ref="BK24:BY24"/>
-    <mergeCell ref="BZ24:CN24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="U25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="BK25:BY25"/>
-    <mergeCell ref="BZ27:CN27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:T26"/>
-    <mergeCell ref="U26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK26:BY26"/>
-    <mergeCell ref="BZ26:CN26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:T27"/>
-    <mergeCell ref="U27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="BK27:BY27"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:T29"/>
-    <mergeCell ref="U29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="BK29:BY29"/>
-    <mergeCell ref="BZ29:CN29"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:T28"/>
-    <mergeCell ref="U28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="BK28:BY28"/>
-    <mergeCell ref="BZ28:CN28"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:T31"/>
-    <mergeCell ref="U31:AO31"/>
-    <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="BK31:BY31"/>
-    <mergeCell ref="BZ31:CN31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:T30"/>
-    <mergeCell ref="U30:AO30"/>
-    <mergeCell ref="AP30:BJ30"/>
-    <mergeCell ref="BK30:BY30"/>
-    <mergeCell ref="BZ30:CN30"/>
-    <mergeCell ref="CO23:DC23"/>
-    <mergeCell ref="CO31:DC31"/>
-    <mergeCell ref="CO25:DC25"/>
-    <mergeCell ref="CO26:DC26"/>
-    <mergeCell ref="CO27:DC27"/>
-    <mergeCell ref="CO28:DC28"/>
-    <mergeCell ref="CO29:DC29"/>
-    <mergeCell ref="CO30:DC30"/>
-    <mergeCell ref="CO24:DC24"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:T6"/>
-    <mergeCell ref="U6:AO6"/>
-    <mergeCell ref="AP6:BD6"/>
-    <mergeCell ref="BE6:BS6"/>
-    <mergeCell ref="CO19:DC19"/>
-    <mergeCell ref="CO20:DC20"/>
-    <mergeCell ref="CO21:DC21"/>
-    <mergeCell ref="CO22:DC22"/>
-    <mergeCell ref="BZ21:CN21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:T20"/>
-    <mergeCell ref="U20:AO20"/>
-    <mergeCell ref="AP20:BJ20"/>
-    <mergeCell ref="BK20:BY20"/>
-    <mergeCell ref="BZ20:CN20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:T21"/>
-    <mergeCell ref="U21:AO21"/>
-    <mergeCell ref="AP21:BJ21"/>
-    <mergeCell ref="BK21:BY21"/>
-    <mergeCell ref="BZ19:CN19"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:T10"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="U5:AO5"/>
+    <mergeCell ref="AP5:BD5"/>
+    <mergeCell ref="BE5:BS5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="U4:AO4"/>
+    <mergeCell ref="AP4:BD4"/>
+    <mergeCell ref="BE4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6364,10 +6371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCC1237-16DD-47FC-9C59-2E49C2F01E8E}">
-  <dimension ref="B2:CP60"/>
+  <dimension ref="B2:CP56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6841,59 +6848,21 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="10"/>
     </row>
-    <row r="18" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-    </row>
-    <row r="21" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="10"/>
+    <row r="19" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -6907,7 +6876,9 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="T21" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
@@ -6925,22 +6896,331 @@
       <c r="AI21" s="10"/>
       <c r="AJ21" s="10"/>
       <c r="AK21" s="10"/>
-    </row>
-    <row r="23" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="10"/>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="10"/>
+      <c r="BF21" s="10"/>
+      <c r="BG21" s="10"/>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BL21" s="10"/>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="10"/>
+      <c r="BR21" s="10"/>
+      <c r="BS21" s="10"/>
+      <c r="BT21" s="10"/>
+      <c r="BU21" s="10"/>
+      <c r="BV21" s="10"/>
+      <c r="BW21" s="10"/>
+      <c r="BX21" s="10"/>
+      <c r="BY21" s="10"/>
+      <c r="BZ21" s="10"/>
+      <c r="CA21" s="10"/>
+      <c r="CB21" s="10"/>
+      <c r="CC21" s="10"/>
+      <c r="CD21" s="10"/>
+      <c r="CE21" s="10"/>
+    </row>
+    <row r="22" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL22" s="10"/>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
+      <c r="BS22" s="10"/>
+      <c r="BT22" s="10"/>
+      <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="10"/>
+      <c r="BY22" s="10"/>
+      <c r="BZ22" s="10"/>
+      <c r="CA22" s="10"/>
+      <c r="CB22" s="10"/>
+      <c r="CC22" s="10"/>
+      <c r="CD22" s="10"/>
+      <c r="CE22" s="10"/>
+    </row>
+    <row r="23" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="10"/>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="10"/>
+      <c r="BF23" s="10"/>
+      <c r="BG23" s="10"/>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
+      <c r="BK23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL23" s="10"/>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
+      <c r="BS23" s="10"/>
+      <c r="BT23" s="10"/>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
+      <c r="BY23" s="10"/>
+      <c r="BZ23" s="10"/>
+      <c r="CA23" s="10"/>
+      <c r="CB23" s="10"/>
+      <c r="CC23" s="10"/>
+      <c r="CD23" s="10"/>
+      <c r="CE23" s="10"/>
+    </row>
+    <row r="24" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="10"/>
+      <c r="BF24" s="10"/>
+      <c r="BG24" s="10"/>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
+      <c r="BK24" s="10"/>
+      <c r="BL24" s="10"/>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
+      <c r="BS24" s="10"/>
+      <c r="BT24" s="10"/>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
+      <c r="BY24" s="10"/>
+      <c r="BZ24" s="10"/>
+      <c r="CA24" s="10"/>
+      <c r="CB24" s="10"/>
+      <c r="CC24" s="10"/>
+      <c r="CD24" s="10"/>
+      <c r="CE24" s="10"/>
+    </row>
+    <row r="25" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -6954,9 +7234,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
@@ -6978,9 +7256,7 @@
       <c r="AM25" s="10"/>
       <c r="AN25" s="10"/>
       <c r="AO25" s="10"/>
-      <c r="AP25" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="AP25" s="10"/>
       <c r="AQ25" s="10"/>
       <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
@@ -7001,9 +7277,7 @@
       <c r="BH25" s="10"/>
       <c r="BI25" s="10"/>
       <c r="BJ25" s="10"/>
-      <c r="BK25" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="BK25" s="10"/>
       <c r="BL25" s="10"/>
       <c r="BM25" s="10"/>
       <c r="BN25" s="10"/>
@@ -7025,586 +7299,353 @@
       <c r="CD25" s="10"/>
       <c r="CE25" s="10"/>
     </row>
-    <row r="26" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="10"/>
-      <c r="BP26" s="10"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="10"/>
-      <c r="BU26" s="10"/>
-      <c r="BV26" s="10"/>
-      <c r="BW26" s="10"/>
-      <c r="BX26" s="10"/>
-      <c r="BY26" s="10"/>
-      <c r="BZ26" s="10"/>
-      <c r="CA26" s="10"/>
-      <c r="CB26" s="10"/>
-      <c r="CC26" s="10"/>
-      <c r="CD26" s="10"/>
-      <c r="CE26" s="10"/>
-    </row>
-    <row r="27" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10">
-        <v>2</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-      <c r="BK27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
-      <c r="BO27" s="10"/>
-      <c r="BP27" s="10"/>
-      <c r="BQ27" s="10"/>
-      <c r="BR27" s="10"/>
-      <c r="BS27" s="10"/>
-      <c r="BT27" s="10"/>
-      <c r="BU27" s="10"/>
-      <c r="BV27" s="10"/>
-      <c r="BW27" s="10"/>
-      <c r="BX27" s="10"/>
-      <c r="BY27" s="10"/>
-      <c r="BZ27" s="10"/>
-      <c r="CA27" s="10"/>
-      <c r="CB27" s="10"/>
-      <c r="CC27" s="10"/>
-      <c r="CD27" s="10"/>
-      <c r="CE27" s="10"/>
-    </row>
-    <row r="28" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-      <c r="BK28" s="10"/>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
-      <c r="BO28" s="10"/>
-      <c r="BP28" s="10"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
-      <c r="BS28" s="10"/>
-      <c r="BT28" s="10"/>
-      <c r="BU28" s="10"/>
-      <c r="BV28" s="10"/>
-      <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
-      <c r="BY28" s="10"/>
-      <c r="BZ28" s="10"/>
-      <c r="CA28" s="10"/>
-      <c r="CB28" s="10"/>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-    </row>
-    <row r="29" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-      <c r="BK29" s="10"/>
-      <c r="BL29" s="10"/>
-      <c r="BM29" s="10"/>
-      <c r="BN29" s="10"/>
-      <c r="BO29" s="10"/>
-      <c r="BP29" s="10"/>
-      <c r="BQ29" s="10"/>
-      <c r="BR29" s="10"/>
-      <c r="BS29" s="10"/>
-      <c r="BT29" s="10"/>
-      <c r="BU29" s="10"/>
-      <c r="BV29" s="10"/>
-      <c r="BW29" s="10"/>
-      <c r="BX29" s="10"/>
-      <c r="BY29" s="10"/>
-      <c r="BZ29" s="10"/>
-      <c r="CA29" s="10"/>
-      <c r="CB29" s="10"/>
-      <c r="CC29" s="10"/>
-      <c r="CD29" s="10"/>
-      <c r="CE29" s="10"/>
-    </row>
-    <row r="32" spans="2:83" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
+    <row r="28" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="15"/>
+      <c r="CG30" s="15"/>
+      <c r="CH30" s="15"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="15"/>
+      <c r="CO30" s="15"/>
+      <c r="CP30" s="15"/>
+    </row>
+    <row r="31" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3"/>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+      <c r="BV31" s="3"/>
+      <c r="BW31" s="3"/>
+      <c r="BX31" s="3"/>
+      <c r="BY31" s="3"/>
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+      <c r="CH31" s="3"/>
+      <c r="CI31" s="3"/>
+      <c r="CJ31" s="3"/>
+      <c r="CK31" s="3"/>
+      <c r="CL31" s="3"/>
+      <c r="CM31" s="3"/>
+      <c r="CN31" s="3"/>
+      <c r="CO31" s="3"/>
+      <c r="CP31" s="4"/>
+    </row>
+    <row r="32" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="1"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="1"/>
+      <c r="CP32" s="5"/>
+    </row>
+    <row r="33" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="1"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="1"/>
+      <c r="CP33" s="5"/>
     </row>
     <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
-      <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
-      <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
-      <c r="AO34" s="15"/>
-      <c r="AP34" s="15"/>
-      <c r="AQ34" s="15"/>
-      <c r="AR34" s="15"/>
-      <c r="AS34" s="15"/>
-      <c r="AT34" s="15"/>
-      <c r="AU34" s="15"/>
-      <c r="AV34" s="15"/>
-      <c r="AW34" s="15"/>
-      <c r="AX34" s="15"/>
-      <c r="AY34" s="15"/>
-      <c r="AZ34" s="15"/>
-      <c r="BA34" s="15"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="15"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="15"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="15"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="15"/>
-      <c r="BO34" s="15"/>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="15"/>
-      <c r="BS34" s="15"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="15"/>
-      <c r="BV34" s="15"/>
-      <c r="BW34" s="15"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="15"/>
-      <c r="CA34" s="15"/>
-      <c r="CB34" s="15"/>
-      <c r="CC34" s="15"/>
-      <c r="CD34" s="15"/>
-      <c r="CE34" s="15"/>
-      <c r="CF34" s="15"/>
-      <c r="CG34" s="15"/>
-      <c r="CH34" s="15"/>
-      <c r="CI34" s="15"/>
-      <c r="CJ34" s="15"/>
-      <c r="CK34" s="15"/>
-      <c r="CL34" s="15"/>
-      <c r="CM34" s="15"/>
-      <c r="CN34" s="15"/>
-      <c r="CO34" s="15"/>
-      <c r="CP34" s="15"/>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="1"/>
+      <c r="K34" t="s">
+        <v>75</v>
+      </c>
+      <c r="CP34" s="5"/>
     </row>
     <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
-      <c r="BL35" s="3"/>
-      <c r="BM35" s="3"/>
-      <c r="BN35" s="3"/>
-      <c r="BO35" s="3"/>
-      <c r="BP35" s="3"/>
-      <c r="BQ35" s="3"/>
-      <c r="BR35" s="3"/>
-      <c r="BS35" s="3"/>
-      <c r="BT35" s="3"/>
-      <c r="BU35" s="3"/>
-      <c r="BV35" s="3"/>
-      <c r="BW35" s="3"/>
-      <c r="BX35" s="3"/>
-      <c r="BY35" s="3"/>
-      <c r="BZ35" s="3"/>
-      <c r="CA35" s="3"/>
-      <c r="CB35" s="3"/>
-      <c r="CC35" s="3"/>
-      <c r="CD35" s="3"/>
-      <c r="CE35" s="3"/>
-      <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
-      <c r="CH35" s="3"/>
-      <c r="CI35" s="3"/>
-      <c r="CJ35" s="3"/>
-      <c r="CK35" s="3"/>
-      <c r="CL35" s="3"/>
-      <c r="CM35" s="3"/>
-      <c r="CN35" s="3"/>
-      <c r="CO35" s="3"/>
-      <c r="CP35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="1"/>
+      <c r="CP35" s="5"/>
     </row>
     <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1"/>
       <c r="I36" s="5"/>
       <c r="J36" s="1"/>
+      <c r="K36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR36" s="10"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
       <c r="CP36" s="5"/>
     </row>
     <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1"/>
       <c r="I37" s="5"/>
       <c r="J37" s="1"/>
+      <c r="K37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
       <c r="CP37" s="5"/>
     </row>
     <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="I38" s="5"/>
       <c r="J38" s="1"/>
-      <c r="K38" t="s">
-        <v>75</v>
-      </c>
       <c r="CP38" s="5"/>
     </row>
     <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1"/>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
       <c r="I39" s="5"/>
       <c r="J39" s="1"/>
       <c r="CP39" s="5"/>
@@ -7613,52 +7654,6 @@
       <c r="B40" s="1"/>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7666,7 +7661,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="1"/>
       <c r="K41" s="10" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -7681,15 +7676,11 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
-      <c r="Y41" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
       <c r="AB41" s="10"/>
-      <c r="AC41" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
       <c r="AF41" s="10"/>
@@ -7703,27 +7694,66 @@
       <c r="AN41" s="10"/>
       <c r="AO41" s="10"/>
       <c r="AP41" s="10"/>
-      <c r="AQ41" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="14"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="10"/>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="10"/>
+      <c r="AU41" s="10"/>
+      <c r="AV41" s="10"/>
+      <c r="AW41" s="10"/>
+      <c r="AX41" s="10"/>
       <c r="CP41" s="5"/>
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
+      <c r="AW42" s="10"/>
+      <c r="AX42" s="10"/>
       <c r="CP42" s="5"/>
     </row>
     <row r="43" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1"/>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
       <c r="CP43" s="5"/>
@@ -7732,6 +7762,9 @@
       <c r="B44" s="1"/>
       <c r="I44" s="5"/>
       <c r="J44" s="1"/>
+      <c r="K44" t="s">
+        <v>23</v>
+      </c>
       <c r="CP44" s="5"/>
     </row>
     <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7739,12 +7772,14 @@
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
       <c r="K45" s="10" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
@@ -7758,7 +7793,9 @@
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
+      <c r="AC45" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AD45" s="10"/>
       <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
@@ -7772,23 +7809,13 @@
       <c r="AN45" s="10"/>
       <c r="AO45" s="10"/>
       <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
-      <c r="AV45" s="10"/>
-      <c r="AW45" s="10"/>
-      <c r="AX45" s="10"/>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1"/>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -7820,14 +7847,6 @@
       <c r="AN46" s="10"/>
       <c r="AO46" s="10"/>
       <c r="AP46" s="10"/>
-      <c r="AQ46" s="10"/>
-      <c r="AR46" s="10"/>
-      <c r="AS46" s="10"/>
-      <c r="AT46" s="10"/>
-      <c r="AU46" s="10"/>
-      <c r="AV46" s="10"/>
-      <c r="AW46" s="10"/>
-      <c r="AX46" s="10"/>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7841,7 +7860,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
       <c r="K48" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="CP48" s="5"/>
     </row>
@@ -7849,51 +7868,15 @@
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="10"/>
+      <c r="K50" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -7925,21 +7908,66 @@
       <c r="AN50" s="10"/>
       <c r="AO50" s="10"/>
       <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
-      <c r="K52" t="s">
-        <v>56</v>
-      </c>
       <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -7949,302 +7977,192 @@
       <c r="CP53" s="5"/>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AS54" s="10"/>
-      <c r="AT54" s="10"/>
-      <c r="AU54" s="10"/>
-      <c r="AV54" s="10"/>
-      <c r="AW54" s="10"/>
-      <c r="AX54" s="10"/>
       <c r="CP54" s="5"/>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
       <c r="I55" s="5"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
-      <c r="AL55" s="10"/>
-      <c r="AM55" s="10"/>
-      <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
-      <c r="AS55" s="10"/>
-      <c r="AT55" s="10"/>
-      <c r="AU55" s="10"/>
-      <c r="AV55" s="10"/>
-      <c r="AW55" s="10"/>
-      <c r="AX55" s="10"/>
       <c r="CP55" s="5"/>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="1"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="1"/>
-      <c r="CP56" s="5"/>
-    </row>
-    <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="1"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="1"/>
-      <c r="CP57" s="5"/>
-    </row>
-    <row r="58" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="1"/>
-      <c r="CP58" s="5"/>
-    </row>
-    <row r="59" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="1"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="1"/>
-      <c r="CP59" s="5"/>
-    </row>
-    <row r="60" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="7" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7"/>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="7"/>
-      <c r="AQ60" s="7"/>
-      <c r="AR60" s="7"/>
-      <c r="AS60" s="7"/>
-      <c r="AT60" s="7"/>
-      <c r="AU60" s="7"/>
-      <c r="AV60" s="7"/>
-      <c r="AW60" s="7"/>
-      <c r="AX60" s="7"/>
-      <c r="AY60" s="7"/>
-      <c r="AZ60" s="7"/>
-      <c r="BA60" s="7"/>
-      <c r="BB60" s="7"/>
-      <c r="BC60" s="7"/>
-      <c r="BD60" s="7"/>
-      <c r="BE60" s="7"/>
-      <c r="BF60" s="7"/>
-      <c r="BG60" s="7"/>
-      <c r="BH60" s="7"/>
-      <c r="BI60" s="7"/>
-      <c r="BJ60" s="7"/>
-      <c r="BK60" s="7"/>
-      <c r="BL60" s="7"/>
-      <c r="BM60" s="7"/>
-      <c r="BN60" s="7"/>
-      <c r="BO60" s="7"/>
-      <c r="BP60" s="7"/>
-      <c r="BQ60" s="7"/>
-      <c r="BR60" s="7"/>
-      <c r="BS60" s="7"/>
-      <c r="BT60" s="7"/>
-      <c r="BU60" s="7"/>
-      <c r="BV60" s="7"/>
-      <c r="BW60" s="7"/>
-      <c r="BX60" s="7"/>
-      <c r="BY60" s="7"/>
-      <c r="BZ60" s="7"/>
-      <c r="CA60" s="7"/>
-      <c r="CB60" s="7"/>
-      <c r="CC60" s="7"/>
-      <c r="CD60" s="7"/>
-      <c r="CE60" s="7"/>
-      <c r="CF60" s="7"/>
-      <c r="CG60" s="7"/>
-      <c r="CH60" s="7"/>
-      <c r="CI60" s="7"/>
-      <c r="CJ60" s="7"/>
-      <c r="CK60" s="7"/>
-      <c r="CL60" s="7"/>
-      <c r="CM60" s="7"/>
-      <c r="CN60" s="7"/>
-      <c r="CO60" s="7"/>
-      <c r="CP60" s="8"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7"/>
+      <c r="BC56" s="7"/>
+      <c r="BD56" s="7"/>
+      <c r="BE56" s="7"/>
+      <c r="BF56" s="7"/>
+      <c r="BG56" s="7"/>
+      <c r="BH56" s="7"/>
+      <c r="BI56" s="7"/>
+      <c r="BJ56" s="7"/>
+      <c r="BK56" s="7"/>
+      <c r="BL56" s="7"/>
+      <c r="BM56" s="7"/>
+      <c r="BN56" s="7"/>
+      <c r="BO56" s="7"/>
+      <c r="BP56" s="7"/>
+      <c r="BQ56" s="7"/>
+      <c r="BR56" s="7"/>
+      <c r="BS56" s="7"/>
+      <c r="BT56" s="7"/>
+      <c r="BU56" s="7"/>
+      <c r="BV56" s="7"/>
+      <c r="BW56" s="7"/>
+      <c r="BX56" s="7"/>
+      <c r="BY56" s="7"/>
+      <c r="BZ56" s="7"/>
+      <c r="CA56" s="7"/>
+      <c r="CB56" s="7"/>
+      <c r="CC56" s="7"/>
+      <c r="CD56" s="7"/>
+      <c r="CE56" s="7"/>
+      <c r="CF56" s="7"/>
+      <c r="CG56" s="7"/>
+      <c r="CH56" s="7"/>
+      <c r="CI56" s="7"/>
+      <c r="CJ56" s="7"/>
+      <c r="CK56" s="7"/>
+      <c r="CL56" s="7"/>
+      <c r="CM56" s="7"/>
+      <c r="CN56" s="7"/>
+      <c r="CO56" s="7"/>
+      <c r="CP56" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="AQ40:AV40"/>
-    <mergeCell ref="AQ41:AV41"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
+  <mergeCells count="72">
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="O46:AB46"/>
+    <mergeCell ref="AC46:AP46"/>
+    <mergeCell ref="K50:AX50"/>
+    <mergeCell ref="K51:AX51"/>
+    <mergeCell ref="K41:AX41"/>
+    <mergeCell ref="K42:AX42"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:AB45"/>
+    <mergeCell ref="AC45:AP45"/>
+    <mergeCell ref="K36:X36"/>
+    <mergeCell ref="K37:X37"/>
+    <mergeCell ref="AC36:AP36"/>
+    <mergeCell ref="AC37:AP37"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="BK21:CE21"/>
+    <mergeCell ref="BK22:CE22"/>
+    <mergeCell ref="BK23:CE23"/>
+    <mergeCell ref="BK24:CE24"/>
+    <mergeCell ref="BK25:CE25"/>
+    <mergeCell ref="T21:AO21"/>
+    <mergeCell ref="AP21:BJ21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:S22"/>
+    <mergeCell ref="T22:AO22"/>
+    <mergeCell ref="AP22:BJ22"/>
+    <mergeCell ref="J30:CP30"/>
+    <mergeCell ref="AP24:BJ24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:S25"/>
+    <mergeCell ref="T25:AO25"/>
+    <mergeCell ref="AP25:BJ25"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:S24"/>
+    <mergeCell ref="T24:AO24"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:S21"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:S10"/>
     <mergeCell ref="T10:AO10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:S11"/>
     <mergeCell ref="T11:AO11"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="AQ36:AV36"/>
+    <mergeCell ref="AQ37:AV37"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:AO12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
     <mergeCell ref="T13:AO13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F14:S14"/>
     <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="T23:AO23"/>
+    <mergeCell ref="AP23:BJ23"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="P20:AK20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="P21:AK21"/>
-    <mergeCell ref="J34:CP34"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:S25"/>
-    <mergeCell ref="T25:AO25"/>
-    <mergeCell ref="AP25:BJ25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:S26"/>
-    <mergeCell ref="T26:AO26"/>
-    <mergeCell ref="AP26:BJ26"/>
-    <mergeCell ref="BK25:CE25"/>
-    <mergeCell ref="BK26:CE26"/>
-    <mergeCell ref="BK27:CE27"/>
-    <mergeCell ref="BK28:CE28"/>
-    <mergeCell ref="BK29:CE29"/>
-    <mergeCell ref="K40:X40"/>
-    <mergeCell ref="K41:X41"/>
-    <mergeCell ref="AC40:AP40"/>
-    <mergeCell ref="AC41:AP41"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="K45:AX45"/>
-    <mergeCell ref="K46:AX46"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:AB49"/>
-    <mergeCell ref="AC49:AP49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="O50:AB50"/>
-    <mergeCell ref="AC50:AP50"/>
-    <mergeCell ref="K54:AX54"/>
-    <mergeCell ref="K55:AX55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8253,10 +8171,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAC7630-23C4-4698-BED5-217510FC4AFB}">
-  <dimension ref="B2:CP60"/>
+  <dimension ref="B2:CP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="BM21" sqref="BM21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8531,65 +8449,72 @@
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
     </row>
-    <row r="10" spans="2:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="11" spans="2:48" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-    </row>
-    <row r="13" spans="2:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -8603,7 +8528,9 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
@@ -8836,55 +8763,57 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="10"/>
     </row>
-    <row r="20" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
+    <row r="19" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+    </row>
+    <row r="21" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="10" t="s">
+    <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-    </row>
-    <row r="23" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -8898,7 +8827,9 @@
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -8921,91 +8852,58 @@
       <c r="AJ23" s="10"/>
       <c r="AK23" s="10"/>
     </row>
-    <row r="25" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="24" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="26" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="10" t="s">
+    <row r="28" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-    </row>
-    <row r="28" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="10">
-        <v>1</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -9021,7 +8919,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
@@ -9044,7 +8942,9 @@
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
       <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
+      <c r="AP28" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="AQ28" s="10"/>
       <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
@@ -9067,11 +8967,15 @@
       <c r="BJ28" s="10"/>
     </row>
     <row r="29" spans="2:62" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="10"/>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -9085,7 +8989,9 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="T29" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -9255,296 +9161,307 @@
       <c r="BI31" s="10"/>
       <c r="BJ31" s="10"/>
     </row>
-    <row r="34" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+    <row r="32" spans="2:62" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
+    </row>
+    <row r="35" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="15" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
-      <c r="AH36" s="15"/>
-      <c r="AI36" s="15"/>
-      <c r="AJ36" s="15"/>
-      <c r="AK36" s="15"/>
-      <c r="AL36" s="15"/>
-      <c r="AM36" s="15"/>
-      <c r="AN36" s="15"/>
-      <c r="AO36" s="15"/>
-      <c r="AP36" s="15"/>
-      <c r="AQ36" s="15"/>
-      <c r="AR36" s="15"/>
-      <c r="AS36" s="15"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="15"/>
-      <c r="AX36" s="15"/>
-      <c r="AY36" s="15"/>
-      <c r="AZ36" s="15"/>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="15"/>
-      <c r="BD36" s="15"/>
-      <c r="BE36" s="15"/>
-      <c r="BF36" s="15"/>
-      <c r="BG36" s="15"/>
-      <c r="BH36" s="15"/>
-      <c r="BI36" s="15"/>
-      <c r="BJ36" s="15"/>
-      <c r="BK36" s="15"/>
-      <c r="BL36" s="15"/>
-      <c r="BM36" s="15"/>
-      <c r="BN36" s="15"/>
-      <c r="BO36" s="15"/>
-      <c r="BP36" s="15"/>
-      <c r="BQ36" s="15"/>
-      <c r="BR36" s="15"/>
-      <c r="BS36" s="15"/>
-      <c r="BT36" s="15"/>
-      <c r="BU36" s="15"/>
-      <c r="BV36" s="15"/>
-      <c r="BW36" s="15"/>
-      <c r="BX36" s="15"/>
-      <c r="BY36" s="15"/>
-      <c r="BZ36" s="15"/>
-      <c r="CA36" s="15"/>
-      <c r="CB36" s="15"/>
-      <c r="CC36" s="15"/>
-      <c r="CD36" s="15"/>
-      <c r="CE36" s="15"/>
-      <c r="CF36" s="15"/>
-      <c r="CG36" s="15"/>
-      <c r="CH36" s="15"/>
-      <c r="CI36" s="15"/>
-      <c r="CJ36" s="15"/>
-      <c r="CK36" s="15"/>
-      <c r="CL36" s="15"/>
-      <c r="CM36" s="15"/>
-      <c r="CN36" s="15"/>
-      <c r="CO36" s="15"/>
-      <c r="CP36" s="15"/>
-    </row>
-    <row r="37" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="2" t="s">
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="15"/>
+      <c r="AX37" s="15"/>
+      <c r="AY37" s="15"/>
+      <c r="AZ37" s="15"/>
+      <c r="BA37" s="15"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="15"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="15"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="15"/>
+      <c r="BV37" s="15"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="15"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="15"/>
+      <c r="CG37" s="15"/>
+      <c r="CH37" s="15"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="15"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
+      <c r="CN37" s="15"/>
+      <c r="CO37" s="15"/>
+      <c r="CP37" s="15"/>
+    </row>
+    <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="3"/>
-      <c r="BA37" s="3"/>
-      <c r="BB37" s="3"/>
-      <c r="BC37" s="3"/>
-      <c r="BD37" s="3"/>
-      <c r="BE37" s="3"/>
-      <c r="BF37" s="3"/>
-      <c r="BG37" s="3"/>
-      <c r="BH37" s="3"/>
-      <c r="BI37" s="3"/>
-      <c r="BJ37" s="3"/>
-      <c r="BK37" s="3"/>
-      <c r="BL37" s="3"/>
-      <c r="BM37" s="3"/>
-      <c r="BN37" s="3"/>
-      <c r="BO37" s="3"/>
-      <c r="BP37" s="3"/>
-      <c r="BQ37" s="3"/>
-      <c r="BR37" s="3"/>
-      <c r="BS37" s="3"/>
-      <c r="BT37" s="3"/>
-      <c r="BU37" s="3"/>
-      <c r="BV37" s="3"/>
-      <c r="BW37" s="3"/>
-      <c r="BX37" s="3"/>
-      <c r="BY37" s="3"/>
-      <c r="BZ37" s="3"/>
-      <c r="CA37" s="3"/>
-      <c r="CB37" s="3"/>
-      <c r="CC37" s="3"/>
-      <c r="CD37" s="3"/>
-      <c r="CE37" s="3"/>
-      <c r="CF37" s="3"/>
-      <c r="CG37" s="3"/>
-      <c r="CH37" s="3"/>
-      <c r="CI37" s="3"/>
-      <c r="CJ37" s="3"/>
-      <c r="CK37" s="3"/>
-      <c r="CL37" s="3"/>
-      <c r="CM37" s="3"/>
-      <c r="CN37" s="3"/>
-      <c r="CO37" s="3"/>
-      <c r="CP37" s="4"/>
-    </row>
-    <row r="38" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="1"/>
-      <c r="CP38" s="5"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+      <c r="BK38" s="3"/>
+      <c r="BL38" s="3"/>
+      <c r="BM38" s="3"/>
+      <c r="BN38" s="3"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
+      <c r="BQ38" s="3"/>
+      <c r="BR38" s="3"/>
+      <c r="BS38" s="3"/>
+      <c r="BT38" s="3"/>
+      <c r="BU38" s="3"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="3"/>
+      <c r="BX38" s="3"/>
+      <c r="BY38" s="3"/>
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="3"/>
+      <c r="CC38" s="3"/>
+      <c r="CD38" s="3"/>
+      <c r="CE38" s="3"/>
+      <c r="CF38" s="3"/>
+      <c r="CG38" s="3"/>
+      <c r="CH38" s="3"/>
+      <c r="CI38" s="3"/>
+      <c r="CJ38" s="3"/>
+      <c r="CK38" s="3"/>
+      <c r="CL38" s="3"/>
+      <c r="CM38" s="3"/>
+      <c r="CN38" s="3"/>
+      <c r="CO38" s="3"/>
+      <c r="CP38" s="4"/>
     </row>
     <row r="39" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="I39" s="5"/>
       <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>49</v>
-      </c>
       <c r="CP39" s="5"/>
     </row>
     <row r="40" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I40" s="5"/>
       <c r="J40" s="1"/>
+      <c r="K40" t="s">
+        <v>49</v>
+      </c>
       <c r="CP40" s="5"/>
     </row>
     <row r="41" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1"/>
       <c r="I41" s="5"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
       <c r="CP41" s="5"/>
     </row>
     <row r="42" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1"/>
       <c r="I42" s="5"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="10">
-        <v>1</v>
+      <c r="K42" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
@@ -9560,7 +9477,7 @@
       <c r="AA42" s="10"/>
       <c r="AB42" s="10"/>
       <c r="AC42" s="10" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="AD42" s="10"/>
       <c r="AE42" s="10"/>
@@ -9589,6 +9506,52 @@
       <c r="B43" s="1"/>
       <c r="I43" s="5"/>
       <c r="J43" s="1"/>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="10"/>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="10"/>
+      <c r="AU43" s="10"/>
+      <c r="AV43" s="10"/>
+      <c r="AW43" s="10"/>
+      <c r="AX43" s="10"/>
       <c r="CP43" s="5"/>
     </row>
     <row r="44" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -9598,68 +9561,26 @@
       <c r="CP44" s="5"/>
     </row>
     <row r="45" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="I45" s="5"/>
       <c r="J45" s="1"/>
-      <c r="K45" t="s">
-        <v>51</v>
-      </c>
       <c r="CP45" s="5"/>
     </row>
     <row r="46" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="1"/>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
       <c r="CP46" s="5"/>
     </row>
     <row r="47" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="10"/>
-      <c r="AL47" s="10"/>
-      <c r="AM47" s="10"/>
-      <c r="AN47" s="10"/>
-      <c r="AO47" s="10"/>
-      <c r="AP47" s="10"/>
-      <c r="AQ47" s="10"/>
-      <c r="AR47" s="10"/>
-      <c r="AS47" s="10"/>
-      <c r="AT47" s="10"/>
-      <c r="AU47" s="10"/>
-      <c r="AV47" s="10"/>
-      <c r="AW47" s="10"/>
-      <c r="AX47" s="10"/>
       <c r="CP47" s="5"/>
     </row>
     <row r="48" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -9667,7 +9588,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
       <c r="K48" s="10" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -9714,73 +9635,77 @@
       <c r="B49" s="1"/>
       <c r="I49" s="5"/>
       <c r="J49" s="1"/>
+      <c r="K49" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
       <c r="CP49" s="5"/>
     </row>
     <row r="50" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1"/>
       <c r="I50" s="5"/>
       <c r="J50" s="1"/>
-      <c r="K50" t="s">
-        <v>23</v>
-      </c>
       <c r="CP50" s="5"/>
     </row>
     <row r="51" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1"/>
       <c r="I51" s="5"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
-      <c r="AN51" s="10"/>
-      <c r="AO51" s="10"/>
-      <c r="AP51" s="10"/>
+      <c r="K51" t="s">
+        <v>23</v>
+      </c>
       <c r="CP51" s="5"/>
     </row>
     <row r="52" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1"/>
       <c r="I52" s="5"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="10">
-        <v>1</v>
+      <c r="K52" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
@@ -9795,7 +9720,9 @@
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
+      <c r="AC52" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
@@ -9815,76 +9742,72 @@
       <c r="B53" s="1"/>
       <c r="I53" s="5"/>
       <c r="J53" s="1"/>
+      <c r="K53" s="10">
+        <v>1</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
       <c r="CP53" s="5"/>
     </row>
     <row r="54" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1"/>
       <c r="I54" s="5"/>
       <c r="J54" s="1"/>
-      <c r="K54" t="s">
-        <v>56</v>
-      </c>
       <c r="CP54" s="5"/>
     </row>
     <row r="55" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1"/>
       <c r="I55" s="5"/>
       <c r="J55" s="1"/>
+      <c r="K55" t="s">
+        <v>56</v>
+      </c>
       <c r="CP55" s="5"/>
     </row>
     <row r="56" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1"/>
       <c r="I56" s="5"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
-      <c r="AU56" s="10"/>
-      <c r="AV56" s="10"/>
-      <c r="AW56" s="10"/>
-      <c r="AX56" s="10"/>
       <c r="CP56" s="5"/>
     </row>
     <row r="57" spans="2:94" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1"/>
       <c r="I57" s="5"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="10"/>
+      <c r="K57" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -9930,6 +9853,46 @@
       <c r="B58" s="1"/>
       <c r="I58" s="5"/>
       <c r="J58" s="1"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="10"/>
       <c r="CP58" s="5"/>
     </row>
     <row r="59" spans="2:94" x14ac:dyDescent="0.55000000000000004">
@@ -9939,127 +9902,153 @@
       <c r="CP59" s="5"/>
     </row>
     <row r="60" spans="2:94" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="1"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="1"/>
+      <c r="CP60" s="5"/>
+    </row>
+    <row r="61" spans="2:94" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="7" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
-      <c r="AB60" s="7"/>
-      <c r="AC60" s="7"/>
-      <c r="AD60" s="7"/>
-      <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
-      <c r="AG60" s="7"/>
-      <c r="AH60" s="7"/>
-      <c r="AI60" s="7"/>
-      <c r="AJ60" s="7"/>
-      <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
-      <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="7"/>
-      <c r="AQ60" s="7"/>
-      <c r="AR60" s="7"/>
-      <c r="AS60" s="7"/>
-      <c r="AT60" s="7"/>
-      <c r="AU60" s="7"/>
-      <c r="AV60" s="7"/>
-      <c r="AW60" s="7"/>
-      <c r="AX60" s="7"/>
-      <c r="AY60" s="7"/>
-      <c r="AZ60" s="7"/>
-      <c r="BA60" s="7"/>
-      <c r="BB60" s="7"/>
-      <c r="BC60" s="7"/>
-      <c r="BD60" s="7"/>
-      <c r="BE60" s="7"/>
-      <c r="BF60" s="7"/>
-      <c r="BG60" s="7"/>
-      <c r="BH60" s="7"/>
-      <c r="BI60" s="7"/>
-      <c r="BJ60" s="7"/>
-      <c r="BK60" s="7"/>
-      <c r="BL60" s="7"/>
-      <c r="BM60" s="7"/>
-      <c r="BN60" s="7"/>
-      <c r="BO60" s="7"/>
-      <c r="BP60" s="7"/>
-      <c r="BQ60" s="7"/>
-      <c r="BR60" s="7"/>
-      <c r="BS60" s="7"/>
-      <c r="BT60" s="7"/>
-      <c r="BU60" s="7"/>
-      <c r="BV60" s="7"/>
-      <c r="BW60" s="7"/>
-      <c r="BX60" s="7"/>
-      <c r="BY60" s="7"/>
-      <c r="BZ60" s="7"/>
-      <c r="CA60" s="7"/>
-      <c r="CB60" s="7"/>
-      <c r="CC60" s="7"/>
-      <c r="CD60" s="7"/>
-      <c r="CE60" s="7"/>
-      <c r="CF60" s="7"/>
-      <c r="CG60" s="7"/>
-      <c r="CH60" s="7"/>
-      <c r="CI60" s="7"/>
-      <c r="CJ60" s="7"/>
-      <c r="CK60" s="7"/>
-      <c r="CL60" s="7"/>
-      <c r="CM60" s="7"/>
-      <c r="CN60" s="7"/>
-      <c r="CO60" s="7"/>
-      <c r="CP60" s="8"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+      <c r="AW61" s="7"/>
+      <c r="AX61" s="7"/>
+      <c r="AY61" s="7"/>
+      <c r="AZ61" s="7"/>
+      <c r="BA61" s="7"/>
+      <c r="BB61" s="7"/>
+      <c r="BC61" s="7"/>
+      <c r="BD61" s="7"/>
+      <c r="BE61" s="7"/>
+      <c r="BF61" s="7"/>
+      <c r="BG61" s="7"/>
+      <c r="BH61" s="7"/>
+      <c r="BI61" s="7"/>
+      <c r="BJ61" s="7"/>
+      <c r="BK61" s="7"/>
+      <c r="BL61" s="7"/>
+      <c r="BM61" s="7"/>
+      <c r="BN61" s="7"/>
+      <c r="BO61" s="7"/>
+      <c r="BP61" s="7"/>
+      <c r="BQ61" s="7"/>
+      <c r="BR61" s="7"/>
+      <c r="BS61" s="7"/>
+      <c r="BT61" s="7"/>
+      <c r="BU61" s="7"/>
+      <c r="BV61" s="7"/>
+      <c r="BW61" s="7"/>
+      <c r="BX61" s="7"/>
+      <c r="BY61" s="7"/>
+      <c r="BZ61" s="7"/>
+      <c r="CA61" s="7"/>
+      <c r="CB61" s="7"/>
+      <c r="CC61" s="7"/>
+      <c r="CD61" s="7"/>
+      <c r="CE61" s="7"/>
+      <c r="CF61" s="7"/>
+      <c r="CG61" s="7"/>
+      <c r="CH61" s="7"/>
+      <c r="CI61" s="7"/>
+      <c r="CJ61" s="7"/>
+      <c r="CK61" s="7"/>
+      <c r="CL61" s="7"/>
+      <c r="CM61" s="7"/>
+      <c r="CN61" s="7"/>
+      <c r="CO61" s="7"/>
+      <c r="CP61" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:CP36"/>
-    <mergeCell ref="K56:AX56"/>
-    <mergeCell ref="K57:AX57"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:AV5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="L6:AV6"/>
-    <mergeCell ref="K47:AX47"/>
-    <mergeCell ref="K48:AX48"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:AB51"/>
-    <mergeCell ref="AC51:AP51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:AB52"/>
-    <mergeCell ref="AC52:AP52"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="O41:AB41"/>
-    <mergeCell ref="AC41:AX41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:AB42"/>
+  <mergeCells count="75">
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="L9:AV9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:S13"/>
+    <mergeCell ref="T13:AO13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:S14"/>
+    <mergeCell ref="T14:AO14"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L4:AV4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="L7:AV7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="L8:AV8"/>
+    <mergeCell ref="F15:S15"/>
+    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:S16"/>
+    <mergeCell ref="T16:AO16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:S17"/>
+    <mergeCell ref="T17:AO17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:S18"/>
+    <mergeCell ref="T18:AO18"/>
+    <mergeCell ref="AP28:BJ28"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:S19"/>
+    <mergeCell ref="T19:AO19"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="P23:AK23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="P24:AK24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:AO28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:S29"/>
+    <mergeCell ref="T29:AO29"/>
+    <mergeCell ref="AP29:BJ29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:S30"/>
     <mergeCell ref="T30:AO30"/>
@@ -10068,50 +10057,32 @@
     <mergeCell ref="F31:S31"/>
     <mergeCell ref="T31:AO31"/>
     <mergeCell ref="AP31:BJ31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:AO28"/>
-    <mergeCell ref="AP28:BJ28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:S29"/>
-    <mergeCell ref="T29:AO29"/>
-    <mergeCell ref="AP29:BJ29"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="P23:AK23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:S27"/>
-    <mergeCell ref="T27:AO27"/>
-    <mergeCell ref="AP27:BJ27"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:S18"/>
-    <mergeCell ref="T18:AO18"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="P22:AK22"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:S16"/>
-    <mergeCell ref="T16:AO16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:S17"/>
-    <mergeCell ref="T17:AO17"/>
-    <mergeCell ref="F14:S14"/>
-    <mergeCell ref="T14:AO14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:S15"/>
-    <mergeCell ref="T15:AO15"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:S32"/>
+    <mergeCell ref="T32:AO32"/>
+    <mergeCell ref="AP32:BJ32"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:AB42"/>
     <mergeCell ref="AC42:AX42"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L4:AV4"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="L7:AV7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="L8:AV8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:AO12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="T13:AO13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:AB43"/>
+    <mergeCell ref="AC43:AX43"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:CP37"/>
+    <mergeCell ref="K57:AX57"/>
+    <mergeCell ref="K58:AX58"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:AV5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="L6:AV6"/>
+    <mergeCell ref="K48:AX48"/>
+    <mergeCell ref="K49:AX49"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:AB52"/>
+    <mergeCell ref="AC52:AP52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="O53:AB53"/>
+    <mergeCell ref="AC53:AP53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
